--- a/data/trans_bre/P25A_7_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_7_R2-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +584,42 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>18,82</t>
+          <t>25,25</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>13,68</t>
+          <t>13,4</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,24</t>
+          <t>13,98</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,41</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>188,82%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>119,37%</t>
+          <t>17,31</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>73,73%</t>
+          <t>302,08%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,64%</t>
+          <t>99,0%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>84,59%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>111,48%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>11,54; 26,53</t>
+          <t>15,45; 34,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>7,96; 19,6</t>
+          <t>5,74; 20,88</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,06; 18,77</t>
+          <t>7,45; 20,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,84; 12,45</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>79,18; 400,21</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>50,09; 225,47</t>
+          <t>7,52; 29,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>23,57; 139,77</t>
+          <t>112,26; 696,73</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-20,0; 22,2</t>
+          <t>31,09; 203,75</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>36,81; 156,66</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>33,79; 286,17</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,0</t>
+          <t>12,49</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>11,78</t>
+          <t>11,7</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>10,62</t>
+          <t>10,7</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4,99</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>178,21%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>183,1%</t>
+          <t>10,82</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>109,26%</t>
+          <t>147,72%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>168,85%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>108,58%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>82,28%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,03; 17,3</t>
+          <t>7,2; 18,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,38; 15,35</t>
+          <t>7,39; 15,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,73; 15,09</t>
+          <t>5,88; 15,65</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 16,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>97,67; 285,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>102,09; 287,93</t>
+          <t>1,66; 16,98</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>42,03; 195,19</t>
+          <t>64,98; 282,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-9,81; 29,63</t>
+          <t>80,33; 280,16</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>39,04; 199,35</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>3,12; 167,99</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,22</t>
+          <t>1,73</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,95</t>
+          <t>1,9</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2,79</t>
+          <t>2,68</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>16,26</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>11,12%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,36%</t>
+          <t>-0,1</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>27,14%</t>
+          <t>14,24%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>29,45%</t>
+          <t>20,8%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>25,69%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,74%</t>
         </is>
       </c>
     </row>
@@ -868,49 +1000,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,99; 6,28</t>
+          <t>-4,11; 7,56</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 5,83</t>
+          <t>-2,42; 6,14</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 7,15</t>
+          <t>-2,14; 7,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,98; 38,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-29,35; 74,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-23,19; 85,04</t>
+          <t>-7,45; 5,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-10,58; 88,32</t>
+          <t>-28,28; 80,45</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-7,03; 107,84</t>
+          <t>-22,66; 90,51</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-17,46; 86,83</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-39,84; 59,46</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>10,83</t>
+          <t>10,72</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,49</t>
+          <t>10,67</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>8,88</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,48</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>120,66%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>114,89%</t>
+          <t>10,62</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>78,17%</t>
+          <t>124,77%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>7,19%</t>
+          <t>170,02%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>88,22%</t>
         </is>
       </c>
     </row>
@@ -968,54 +1140,222 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>7,61; 13,9</t>
+          <t>6,18; 15,14</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,05; 12,04</t>
+          <t>5,56; 15,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,76; 11,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-2,95; 12,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>72,47; 179,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>75,62; 168,46</t>
+          <t>3,83; 16,53</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>43,11; 119,88</t>
+          <t>51,43; 229,61</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-4,39; 21,59</t>
+          <t>59,03; 359,44</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>27,63; 181,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11,01</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9,42</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9,19</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>9,38</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>118,69%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>113,25%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>80,28%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>70,86%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>8,18; 14,04</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>6,82; 11,84</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>6,1; 11,8</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>5,24; 13,03</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>77,88; 176,74</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>69,94; 162,96</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>45,28; 118,23</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>32,39; 116,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25A_7_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P25A_7_R2-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,223 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>25,25</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>13,4</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>13,98</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>17,31</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>302,08%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>99,0%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>84,59%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>111,48%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>24.91624467520574</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>13.42922408503504</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>14.26956060712072</v>
+      </c>
+      <c r="F4" s="5" t="inlineStr"/>
+      <c r="G4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="n">
+        <v>16.30192698809964</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>3.066106100679982</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.9924609367601636</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.8670936758161427</v>
+      </c>
+      <c r="L4" s="6" t="inlineStr"/>
+      <c r="M4" s="6" t="inlineStr"/>
+      <c r="N4" s="6" t="n">
+        <v>1.033412133756762</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>15,45; 34,0</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>5,74; 20,88</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>7,45; 20,51</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>7,52; 29,07</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>112,26; 696,73</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>31,09; 203,75</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>36,81; 156,66</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>33,79; 286,17</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>15.69422838268407</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>5.843653978974866</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>7.548446009848885</v>
+      </c>
+      <c r="F5" s="5" t="inlineStr"/>
+      <c r="G5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="n">
+        <v>6.055100127478275</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>1.175599487737264</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.3096647802574961</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.3812104865706835</v>
+      </c>
+      <c r="L5" s="6" t="inlineStr"/>
+      <c r="M5" s="6" t="inlineStr"/>
+      <c r="N5" s="6" t="n">
+        <v>0.2709064556744152</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>33.72396151205147</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>21.03118353334934</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>20.75009591309935</v>
+      </c>
+      <c r="F6" s="5" t="inlineStr"/>
+      <c r="G6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="n">
+        <v>27.74387731745423</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>6.926705141876291</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.072690802549064</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.586243919111709</v>
+      </c>
+      <c r="L6" s="6" t="inlineStr"/>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="n">
+        <v>2.654235052200717</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>12,49</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>11,7</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>10,7</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>10,82</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>147,72%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>168,85%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>108,58%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>82,28%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>7,2; 18,06</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>7,39; 15,5</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>5,88; 15,65</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>1,66; 16,98</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>64,98; 282,32</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>80,33; 280,16</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>39,04; 199,35</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>3,12; 167,99</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>11.71250672034026</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>12.03718291924105</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>10.55267056779712</v>
+      </c>
+      <c r="F7" s="5" t="inlineStr"/>
+      <c r="G7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="n">
+        <v>10.57812397097717</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.452067729881873</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.802932636400189</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>1.072856953346426</v>
+      </c>
+      <c r="L7" s="6" t="inlineStr"/>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="n">
+        <v>0.8088907483405352</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>1,73</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>1,9</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,68</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-0,1</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>14,24%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>20,8%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>25,69%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-0,74%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>6.605704060541308</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>7.608013685767837</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>5.678317854092514</v>
+      </c>
+      <c r="F8" s="5" t="inlineStr"/>
+      <c r="G8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="n">
+        <v>1.403357431446515</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.6291673246808407</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.8434469022315428</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.3892845648800426</v>
+      </c>
+      <c r="L8" s="6" t="inlineStr"/>
+      <c r="M8" s="6" t="inlineStr"/>
+      <c r="N8" s="6" t="n">
+        <v>0.01962888393300524</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-4,11; 7,56</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-2,42; 6,14</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-2,14; 7,06</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-7,45; 5,85</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-28,28; 80,45</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-22,66; 90,51</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>-17,46; 86,83</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-39,84; 59,46</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>17.00901991066268</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>15.60434016525006</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>15.41639065161597</v>
+      </c>
+      <c r="F9" s="5" t="inlineStr"/>
+      <c r="G9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="n">
+        <v>16.69411279892876</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>2.70503408244188</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.927505414876148</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.984820026303595</v>
+      </c>
+      <c r="L9" s="6" t="inlineStr"/>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="n">
+        <v>1.669220431550297</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,291 +883,234 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>10,72</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>10,67</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>10,62</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>124,77%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>170,02%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>88,22%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>1.894978756975413</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>1.9913783080831</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.621650322104782</v>
+      </c>
+      <c r="F10" s="5" t="inlineStr"/>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>-0.1246152094596581</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.1533682257780374</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>0.2187160549761125</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>0.2534823225934967</v>
+      </c>
+      <c r="L10" s="6" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="n">
+        <v>-0.009096329326862091</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>6,18; 15,14</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>5,56; 15,53</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>3,83; 16,53</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>51,43; 229,61</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>59,03; 359,44</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>27,63; 181,3</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-4.469222103249323</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-2.530567158692297</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-2.035933967046073</v>
+      </c>
+      <c r="F11" s="5" t="inlineStr"/>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>-7.826735189901707</v>
+      </c>
+      <c r="I11" s="6" t="n">
+        <v>-0.2793722761327505</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>-0.2226762532611861</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>-0.159194198479532</v>
+      </c>
+      <c r="L11" s="6" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="n">
+        <v>-0.4086412739626388</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>8.033082117474514</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>6.198702398610041</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>7.018175739479325</v>
+      </c>
+      <c r="F12" s="5" t="inlineStr"/>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>5.673238437410751</v>
+      </c>
+      <c r="I12" s="6" t="n">
+        <v>0.9089159137855551</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>0.9075304620235807</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>0.8815255612858015</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="n">
+        <v>0.5817860974294405</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>11,01</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>9,42</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>9,19</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>9,38</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>118,69%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>113,25%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>80,28%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>70,86%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>8,18; 14,04</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>6,82; 11,84</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>6,1; 11,8</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>5,24; 13,03</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>77,88; 176,74</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>69,94; 162,96</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>45,28; 118,23</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>32,39; 116,04</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>10.70246577902418</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>9.217751583641979</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>9.227511349572403</v>
+      </c>
+      <c r="F13" s="5" t="inlineStr"/>
+      <c r="G13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="n">
+        <v>8.527553022510546</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>1.109414680631196</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.04055976930696</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.8102896317702575</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr"/>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="n">
+        <v>0.6175991956740026</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>6.90425519203991</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>6.603623019534079</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>6.279187537525262</v>
+      </c>
+      <c r="F14" s="5" t="inlineStr"/>
+      <c r="G14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="n">
+        <v>3.55926868930378</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.6081182898952072</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.6053831799540281</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.4671458033509183</v>
+      </c>
+      <c r="L14" s="6" t="inlineStr"/>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="n">
+        <v>0.176759463640154</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>14.27828429943677</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>12.48487132654142</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>11.92103479713815</v>
+      </c>
+      <c r="F15" s="5" t="inlineStr"/>
+      <c r="G15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="n">
+        <v>12.85844049976864</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>1.825463351575463</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.627176043522706</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.19507702529305</v>
+      </c>
+      <c r="L15" s="6" t="inlineStr"/>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="n">
+        <v>1.107570269366198</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
